--- a/gaming_universe_prepared.xlsx
+++ b/gaming_universe_prepared.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="164">
   <si>
     <t>Company</t>
   </si>
@@ -238,136 +238,148 @@
     <t>ACEL</t>
   </si>
   <si>
-    <t>AGI</t>
-  </si>
-  <si>
-    <t>ALL</t>
+    <t>AGI.AX</t>
+  </si>
+  <si>
+    <t>ALL.AX</t>
   </si>
   <si>
     <t>BALY</t>
   </si>
   <si>
-    <t>BNJ</t>
+    <t>BNJ.AS</t>
+  </si>
+  <si>
+    <t>BET.AX</t>
+  </si>
+  <si>
+    <t>BBT.AX</t>
+  </si>
+  <si>
+    <t>BETS-B.ST</t>
+  </si>
+  <si>
+    <t>BETCO.ST</t>
+  </si>
+  <si>
+    <t>BLBRF</t>
+  </si>
+  <si>
+    <t>BYD</t>
+  </si>
+  <si>
+    <t>BRAG.TO</t>
+  </si>
+  <si>
+    <t>CZR</t>
+  </si>
+  <si>
+    <t>CTM.ST</t>
+  </si>
+  <si>
+    <t>CNTY</t>
+  </si>
+  <si>
+    <t>CHDN</t>
+  </si>
+  <si>
+    <t>CDRO</t>
+  </si>
+  <si>
+    <t>PLUS</t>
+  </si>
+  <si>
+    <t>DDI</t>
+  </si>
+  <si>
+    <t>DKNG</t>
+  </si>
+  <si>
+    <t>ENT.L</t>
+  </si>
+  <si>
+    <t>EVRI</t>
+  </si>
+  <si>
+    <t>EVOK.L</t>
+  </si>
+  <si>
+    <t>EVO.ST</t>
+  </si>
+  <si>
+    <t>FDJU.PA</t>
+  </si>
+  <si>
+    <t>FLUT</t>
+  </si>
+  <si>
+    <t>FLL</t>
+  </si>
+  <si>
+    <t>oo27.HK</t>
+  </si>
+  <si>
+    <t>GAMB</t>
+  </si>
+  <si>
+    <t>GCOR.ST</t>
+  </si>
+  <si>
+    <t>GENI</t>
+  </si>
+  <si>
+    <t>GENTING.KL</t>
+  </si>
+  <si>
+    <t>GENM.KL</t>
+  </si>
+  <si>
+    <t>G13.SI</t>
+  </si>
+  <si>
+    <t>GMGI</t>
+  </si>
+  <si>
+    <t>114090.KS</t>
+  </si>
+  <si>
+    <t>IGT</t>
+  </si>
+  <si>
+    <t>KAMBI.ST</t>
+  </si>
+  <si>
+    <t>9766.T</t>
+  </si>
+  <si>
+    <t>LVS</t>
+  </si>
+  <si>
+    <t>LNW</t>
+  </si>
+  <si>
+    <t>LTMC.MI</t>
+  </si>
+  <si>
+    <t>MLCO</t>
+  </si>
+  <si>
+    <t>MGM</t>
+  </si>
+  <si>
+    <t>MCRI</t>
+  </si>
+  <si>
+    <t>3918.HK</t>
   </si>
   <si>
     <t>BET</t>
   </si>
   <si>
-    <t>BBT</t>
-  </si>
-  <si>
-    <t>BETS-B</t>
-  </si>
-  <si>
-    <t>BETCO</t>
-  </si>
-  <si>
-    <t>BLBRF</t>
-  </si>
-  <si>
-    <t>BYD</t>
-  </si>
-  <si>
-    <t>BRAG</t>
-  </si>
-  <si>
-    <t>CZR</t>
-  </si>
-  <si>
-    <t>CTM</t>
-  </si>
-  <si>
-    <t>CNTY</t>
-  </si>
-  <si>
-    <t>CHDN</t>
-  </si>
-  <si>
-    <t>CDRO</t>
-  </si>
-  <si>
-    <t>PLUS</t>
-  </si>
-  <si>
-    <t>DDI</t>
-  </si>
-  <si>
-    <t>DKNG</t>
-  </si>
-  <si>
-    <t>ENT</t>
-  </si>
-  <si>
-    <t>EVRI</t>
-  </si>
-  <si>
-    <t>EVOK</t>
-  </si>
-  <si>
-    <t>EVO</t>
-  </si>
-  <si>
-    <t>FDJU</t>
-  </si>
-  <si>
-    <t>FLUT</t>
-  </si>
-  <si>
-    <t>FLL</t>
-  </si>
-  <si>
-    <t>oo27</t>
-  </si>
-  <si>
-    <t>GAMB</t>
-  </si>
-  <si>
-    <t>GCOR</t>
-  </si>
-  <si>
-    <t>GENI</t>
-  </si>
-  <si>
-    <t>GENTING</t>
-  </si>
-  <si>
-    <t>GENM</t>
-  </si>
-  <si>
-    <t>G13</t>
-  </si>
-  <si>
-    <t>GMGI</t>
-  </si>
-  <si>
-    <t>IGT</t>
-  </si>
-  <si>
-    <t>KAMBI</t>
-  </si>
-  <si>
-    <t>LVS</t>
-  </si>
-  <si>
-    <t>LNW</t>
-  </si>
-  <si>
-    <t>LTMC</t>
-  </si>
-  <si>
-    <t>MLCO</t>
-  </si>
-  <si>
-    <t>MGM</t>
-  </si>
-  <si>
-    <t>MCRI</t>
-  </si>
-  <si>
-    <t>OPAP</t>
-  </si>
-  <si>
-    <t>o34230</t>
+    <t>OPAP.AT</t>
+  </si>
+  <si>
+    <t>o34230.KS</t>
   </si>
   <si>
     <t>PENN</t>
@@ -376,49 +388,55 @@
     <t>AGS</t>
   </si>
   <si>
-    <t>PTEC</t>
-  </si>
-  <si>
-    <t>PBL</t>
-  </si>
-  <si>
-    <t>PBH</t>
-  </si>
-  <si>
-    <t>RNK</t>
+    <t>PTEC.L</t>
+  </si>
+  <si>
+    <t>PBL.TO</t>
+  </si>
+  <si>
+    <t>PBH.AX</t>
+  </si>
+  <si>
+    <t>RNK.L</t>
   </si>
   <si>
     <t>RRR</t>
   </si>
   <si>
-    <t>RGB</t>
+    <t>RGB.KL</t>
   </si>
   <si>
     <t>RSI</t>
   </si>
   <si>
-    <t>o880</t>
+    <t>1928.HK</t>
+  </si>
+  <si>
+    <t>6460.T</t>
+  </si>
+  <si>
+    <t>o880.HK</t>
   </si>
   <si>
     <t>SRAD</t>
   </si>
   <si>
-    <t>SGR</t>
+    <t>SGR.AX</t>
   </si>
   <si>
     <t>SGHC</t>
   </si>
   <si>
-    <t>TAH</t>
-  </si>
-  <si>
-    <t>TLC</t>
+    <t>TAH.AX</t>
+  </si>
+  <si>
+    <t>TLC.AX</t>
   </si>
   <si>
     <t>WYNN</t>
   </si>
   <si>
-    <t>TIM</t>
+    <t>TIM.F</t>
   </si>
   <si>
     <t>NYSE</t>
@@ -876,13 +894,13 @@
         <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D2">
         <v>0.01470588235294118</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -893,13 +911,13 @@
         <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D3">
         <v>0.01470588235294118</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -910,13 +928,13 @@
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D4">
         <v>0.01470588235294118</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -927,13 +945,13 @@
         <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D5">
         <v>0.01470588235294118</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -944,13 +962,13 @@
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D6">
         <v>0.01470588235294118</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -961,13 +979,13 @@
         <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D7">
         <v>0.01470588235294118</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -978,13 +996,13 @@
         <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D8">
         <v>0.01470588235294118</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -995,13 +1013,13 @@
         <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D9">
         <v>0.01470588235294118</v>
       </c>
       <c r="E9" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1012,13 +1030,13 @@
         <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D10">
         <v>0.01470588235294118</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1029,13 +1047,13 @@
         <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D11">
         <v>0.01470588235294118</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1046,13 +1064,13 @@
         <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D12">
         <v>0.01470588235294118</v>
       </c>
       <c r="E12" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1063,13 +1081,13 @@
         <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D13">
         <v>0.01470588235294118</v>
       </c>
       <c r="E13" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1080,13 +1098,13 @@
         <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D14">
         <v>0.01470588235294118</v>
       </c>
       <c r="E14" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1097,13 +1115,13 @@
         <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D15">
         <v>0.01470588235294118</v>
       </c>
       <c r="E15" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1114,13 +1132,13 @@
         <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D16">
         <v>0.01470588235294118</v>
       </c>
       <c r="E16" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1131,13 +1149,13 @@
         <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D17">
         <v>0.01470588235294118</v>
       </c>
       <c r="E17" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1148,13 +1166,13 @@
         <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D18">
         <v>0.01470588235294118</v>
       </c>
       <c r="E18" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1165,13 +1183,13 @@
         <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D19">
         <v>0.01470588235294118</v>
       </c>
       <c r="E19" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1182,13 +1200,13 @@
         <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D20">
         <v>0.01470588235294118</v>
       </c>
       <c r="E20" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1199,13 +1217,13 @@
         <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D21">
         <v>0.01470588235294118</v>
       </c>
       <c r="E21" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1216,13 +1234,13 @@
         <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D22">
         <v>0.01470588235294118</v>
       </c>
       <c r="E22" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1233,13 +1251,13 @@
         <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D23">
         <v>0.01470588235294118</v>
       </c>
       <c r="E23" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1250,13 +1268,13 @@
         <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D24">
         <v>0.01470588235294118</v>
       </c>
       <c r="E24" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1267,13 +1285,13 @@
         <v>96</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D25">
         <v>0.01470588235294118</v>
       </c>
       <c r="E25" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1284,13 +1302,13 @@
         <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D26">
         <v>0.01470588235294118</v>
       </c>
       <c r="E26" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1301,13 +1319,13 @@
         <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D27">
         <v>0.01470588235294118</v>
       </c>
       <c r="E27" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1318,13 +1336,13 @@
         <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D28">
         <v>0.01470588235294118</v>
       </c>
       <c r="E28" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1335,13 +1353,13 @@
         <v>100</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D29">
         <v>0.01470588235294118</v>
       </c>
       <c r="E29" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1352,13 +1370,13 @@
         <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D30">
         <v>0.01470588235294118</v>
       </c>
       <c r="E30" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1369,13 +1387,13 @@
         <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D31">
         <v>0.01470588235294118</v>
       </c>
       <c r="E31" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1386,13 +1404,13 @@
         <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D32">
         <v>0.01470588235294118</v>
       </c>
       <c r="E32" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1403,13 +1421,13 @@
         <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D33">
         <v>0.01470588235294118</v>
       </c>
       <c r="E33" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1420,13 +1438,13 @@
         <v>105</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D34">
         <v>0.01470588235294118</v>
       </c>
       <c r="E34" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1437,13 +1455,13 @@
         <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D35">
         <v>0.01470588235294118</v>
       </c>
       <c r="E35" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1454,30 +1472,30 @@
         <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D36">
         <v>0.01470588235294118</v>
       </c>
       <c r="E36" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>40</v>
       </c>
-      <c r="B37">
-        <v>114090</v>
+      <c r="B37" t="s">
+        <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D37">
         <v>0.01470588235294118</v>
       </c>
       <c r="E37" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1485,16 +1503,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D38">
         <v>0.01470588235294118</v>
       </c>
       <c r="E38" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1502,33 +1520,33 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D39">
         <v>0.01470588235294118</v>
       </c>
       <c r="E39" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>43</v>
       </c>
-      <c r="B40">
-        <v>9766</v>
+      <c r="B40" t="s">
+        <v>111</v>
       </c>
       <c r="C40" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D40">
         <v>0.01470588235294118</v>
       </c>
       <c r="E40" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1536,16 +1554,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D41">
         <v>0.01470588235294118</v>
       </c>
       <c r="E41" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1553,16 +1571,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D42">
         <v>0.01470588235294118</v>
       </c>
       <c r="E42" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1570,16 +1588,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C43" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D43">
         <v>0.01470588235294118</v>
       </c>
       <c r="E43" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1587,16 +1605,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D44">
         <v>0.01470588235294118</v>
       </c>
       <c r="E44" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1604,16 +1622,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D45">
         <v>0.01470588235294118</v>
       </c>
       <c r="E45" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1621,33 +1639,33 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D46">
         <v>0.01470588235294118</v>
       </c>
       <c r="E46" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>50</v>
       </c>
-      <c r="B47">
-        <v>3918</v>
+      <c r="B47" t="s">
+        <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D47">
         <v>0.01470588235294118</v>
       </c>
       <c r="E47" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1655,16 +1673,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D48">
         <v>0.01470588235294118</v>
       </c>
       <c r="E48" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1672,16 +1690,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D49">
         <v>0.01470588235294118</v>
       </c>
       <c r="E49" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1689,16 +1707,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D50">
         <v>0.01470588235294118</v>
       </c>
       <c r="E50" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1706,16 +1724,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D51">
         <v>0.01470588235294118</v>
       </c>
       <c r="E51" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1723,16 +1741,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C52" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D52">
         <v>0.01470588235294118</v>
       </c>
       <c r="E52" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1740,16 +1758,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C53" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D53">
         <v>0.01470588235294118</v>
       </c>
       <c r="E53" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1757,16 +1775,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C54" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D54">
         <v>0.01470588235294118</v>
       </c>
       <c r="E54" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1774,16 +1792,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C55" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D55">
         <v>0.01470588235294118</v>
       </c>
       <c r="E55" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1791,16 +1809,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C56" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D56">
         <v>0.01470588235294118</v>
       </c>
       <c r="E56" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1808,16 +1826,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C57" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D57">
         <v>0.01470588235294118</v>
       </c>
       <c r="E57" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1825,16 +1843,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C58" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D58">
         <v>0.01470588235294118</v>
       </c>
       <c r="E58" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1842,50 +1860,50 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D59">
         <v>0.01470588235294118</v>
       </c>
       <c r="E59" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>63</v>
       </c>
-      <c r="B60">
-        <v>1928</v>
+      <c r="B60" t="s">
+        <v>131</v>
       </c>
       <c r="C60" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D60">
         <v>0.01470588235294118</v>
       </c>
       <c r="E60" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>64</v>
       </c>
-      <c r="B61">
-        <v>6460</v>
+      <c r="B61" t="s">
+        <v>132</v>
       </c>
       <c r="C61" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D61">
         <v>0.01470588235294118</v>
       </c>
       <c r="E61" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1893,16 +1911,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C62" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D62">
         <v>0.01470588235294118</v>
       </c>
       <c r="E62" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1910,16 +1928,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C63" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D63">
         <v>0.01470588235294118</v>
       </c>
       <c r="E63" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1927,16 +1945,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C64" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D64">
         <v>0.01470588235294118</v>
       </c>
       <c r="E64" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1944,16 +1962,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C65" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D65">
         <v>0.01470588235294118</v>
       </c>
       <c r="E65" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1961,16 +1979,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C66" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D66">
         <v>0.01470588235294118</v>
       </c>
       <c r="E66" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1978,16 +1996,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C67" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D67">
         <v>0.01470588235294118</v>
       </c>
       <c r="E67" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1995,16 +2013,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C68" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D68">
         <v>0.01470588235294118</v>
       </c>
       <c r="E68" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2012,16 +2030,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C69" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D69">
         <v>0.01470588235294118</v>
       </c>
       <c r="E69" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
